--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.02418920250645</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N2">
-        <v>1.02418920250645</v>
+        <v>0.02856</v>
       </c>
       <c r="O2">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P2">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q2">
-        <v>11.52431848982732</v>
+        <v>0.1886418590933333</v>
       </c>
       <c r="R2">
-        <v>11.52431848982732</v>
+        <v>1.69777673184</v>
       </c>
       <c r="S2">
-        <v>0.00178172056933295</v>
+        <v>2.346925513229365E-05</v>
       </c>
       <c r="T2">
-        <v>0.00178172056933295</v>
+        <v>2.346925513229365E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.42349468493661</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N3">
-        <v>8.42349468493661</v>
+        <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P3">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q3">
-        <v>94.78232665313202</v>
+        <v>21.38363796579556</v>
       </c>
       <c r="R3">
-        <v>94.78232665313202</v>
+        <v>192.45274169216</v>
       </c>
       <c r="S3">
-        <v>0.01465384882899488</v>
+        <v>0.002660374836676918</v>
       </c>
       <c r="T3">
-        <v>0.01465384882899488</v>
+        <v>0.002660374836676917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02418920250645</v>
+        <v>8.844986</v>
       </c>
       <c r="N4">
-        <v>1.02418920250645</v>
+        <v>26.534958</v>
       </c>
       <c r="O4">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P4">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q4">
-        <v>530.5068109569629</v>
+        <v>175.2662397788347</v>
       </c>
       <c r="R4">
-        <v>530.5068109569629</v>
+        <v>1577.396158009512</v>
       </c>
       <c r="S4">
-        <v>0.0820191578432688</v>
+        <v>0.021805171541551</v>
       </c>
       <c r="T4">
-        <v>0.0820191578432688</v>
+        <v>0.021805171541551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H5">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I5">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J5">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>8.42349468493661</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N5">
-        <v>8.42349468493661</v>
+        <v>0.02856</v>
       </c>
       <c r="O5">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P5">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q5">
-        <v>4363.179470631556</v>
+        <v>5.048451719173332</v>
       </c>
       <c r="R5">
-        <v>4363.179470631556</v>
+        <v>45.43606547256</v>
       </c>
       <c r="S5">
-        <v>0.6745706149459241</v>
+        <v>0.0006280864808574859</v>
       </c>
       <c r="T5">
-        <v>0.6745706149459241</v>
+        <v>0.0006280864808574859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H6">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I6">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J6">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02418920250645</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N6">
-        <v>1.02418920250645</v>
+        <v>3.23744</v>
       </c>
       <c r="O6">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P6">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q6">
-        <v>35.68941139788909</v>
+        <v>572.2709920770488</v>
       </c>
       <c r="R6">
-        <v>35.68941139788909</v>
+        <v>5150.43892869344</v>
       </c>
       <c r="S6">
-        <v>0.005517771697401054</v>
+        <v>0.07119720926425979</v>
       </c>
       <c r="T6">
-        <v>0.005517771697401054</v>
+        <v>0.07119720926425978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H7">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J7">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.42349468493661</v>
+        <v>8.844986</v>
       </c>
       <c r="N7">
-        <v>8.42349468493661</v>
+        <v>26.534958</v>
       </c>
       <c r="O7">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P7">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q7">
-        <v>293.5293268889363</v>
+        <v>4690.492098504628</v>
       </c>
       <c r="R7">
-        <v>293.5293268889363</v>
+        <v>42214.42888654166</v>
       </c>
       <c r="S7">
-        <v>0.04538118587074123</v>
+        <v>0.5835521144930391</v>
       </c>
       <c r="T7">
-        <v>0.04538118587074123</v>
+        <v>0.583552114493039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H8">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I8">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J8">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.02418920250645</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N8">
-        <v>1.02418920250645</v>
+        <v>0.02856</v>
       </c>
       <c r="O8">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P8">
-        <v>0.108406379246844</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q8">
-        <v>42.98108683539306</v>
+        <v>1.086757167626666</v>
       </c>
       <c r="R8">
-        <v>42.98108683539306</v>
+        <v>9.780814508639997</v>
       </c>
       <c r="S8">
-        <v>0.006645103272224211</v>
+        <v>0.0001352053110400057</v>
       </c>
       <c r="T8">
-        <v>0.006645103272224211</v>
+        <v>0.0001352053110400057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H9">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I9">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J9">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.42349468493661</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N9">
-        <v>8.42349468493661</v>
+        <v>3.23744</v>
       </c>
       <c r="O9">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P9">
-        <v>0.891593620753156</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q9">
-        <v>353.5000716905647</v>
+        <v>123.1901654328178</v>
       </c>
       <c r="R9">
-        <v>353.5000716905647</v>
+        <v>1108.71148889536</v>
       </c>
       <c r="S9">
-        <v>0.05465298009142311</v>
+        <v>0.01532629839542563</v>
       </c>
       <c r="T9">
-        <v>0.05465298009142311</v>
+        <v>0.01532629839542563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.8948812832746</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H10">
-        <v>38.8948812832746</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I10">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J10">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02418920250645</v>
+        <v>8.844986</v>
       </c>
       <c r="N10">
-        <v>1.02418920250645</v>
+        <v>26.534958</v>
       </c>
       <c r="O10">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P10">
-        <v>0.108406379246844</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q10">
-        <v>39.83571744310007</v>
+        <v>1009.700833304361</v>
       </c>
       <c r="R10">
-        <v>39.83571744310007</v>
+        <v>9087.30749973925</v>
       </c>
       <c r="S10">
-        <v>0.006158812534134528</v>
+        <v>0.1256186011842958</v>
       </c>
       <c r="T10">
-        <v>0.006158812534134528</v>
+        <v>0.1256186011842957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H11">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I11">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J11">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.42349468493661</v>
+        <v>0.009519999999999999</v>
       </c>
       <c r="N11">
-        <v>8.42349468493661</v>
+        <v>0.02856</v>
       </c>
       <c r="O11">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="P11">
-        <v>0.891593620753156</v>
+        <v>0.0009583584527718872</v>
       </c>
       <c r="Q11">
-        <v>327.630825760904</v>
+        <v>0.4029819554133333</v>
       </c>
       <c r="R11">
-        <v>327.630825760904</v>
+        <v>3.62683759872</v>
       </c>
       <c r="S11">
-        <v>0.05065345789610241</v>
+        <v>5.013567174731232E-05</v>
       </c>
       <c r="T11">
-        <v>0.05065345789610241</v>
+        <v>5.013567174731232E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H12">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I12">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J12">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.02418920250645</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N12">
-        <v>1.02418920250645</v>
+        <v>3.23744</v>
       </c>
       <c r="O12">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004839</v>
       </c>
       <c r="P12">
-        <v>0.108406379246844</v>
+        <v>0.1086354338004838</v>
       </c>
       <c r="Q12">
-        <v>40.64423310677408</v>
+        <v>45.68031868814222</v>
       </c>
       <c r="R12">
-        <v>40.64423310677408</v>
+        <v>411.1228681932801</v>
       </c>
       <c r="S12">
-        <v>0.006283813330482483</v>
+        <v>0.005683166286471248</v>
       </c>
       <c r="T12">
-        <v>0.006283813330482483</v>
+        <v>0.005683166286471247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H13">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I13">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J13">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.42349468493661</v>
+        <v>8.844986</v>
       </c>
       <c r="N13">
-        <v>8.42349468493661</v>
+        <v>26.534958</v>
       </c>
       <c r="O13">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467443</v>
       </c>
       <c r="P13">
-        <v>0.891593620753156</v>
+        <v>0.8904062077467442</v>
       </c>
       <c r="Q13">
-        <v>334.2805027727091</v>
+        <v>374.4085875928106</v>
       </c>
       <c r="R13">
-        <v>334.2805027727091</v>
+        <v>3369.677288335296</v>
       </c>
       <c r="S13">
-        <v>0.05168153311997026</v>
+        <v>0.04658081036823247</v>
       </c>
       <c r="T13">
-        <v>0.05168153311997026</v>
+        <v>0.04658081036823247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H14">
+        <v>138.661867</v>
+      </c>
+      <c r="I14">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J14">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009519999999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.02856</v>
+      </c>
+      <c r="O14">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="P14">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="Q14">
+        <v>0.4400203246133333</v>
+      </c>
+      <c r="R14">
+        <v>3.96018292152</v>
+      </c>
+      <c r="S14">
+        <v>5.474367837223011E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.474367837223011E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H15">
+        <v>138.661867</v>
+      </c>
+      <c r="I15">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J15">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.23744</v>
+      </c>
+      <c r="O15">
+        <v>0.1086354338004839</v>
+      </c>
+      <c r="P15">
+        <v>0.1086354338004838</v>
+      </c>
+      <c r="Q15">
+        <v>49.87883052227556</v>
+      </c>
+      <c r="R15">
+        <v>448.9094747004801</v>
+      </c>
+      <c r="S15">
+        <v>0.006205510297947922</v>
+      </c>
+      <c r="T15">
+        <v>0.006205510297947922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H16">
+        <v>138.661867</v>
+      </c>
+      <c r="I16">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J16">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.844986</v>
+      </c>
+      <c r="N16">
+        <v>26.534958</v>
+      </c>
+      <c r="O16">
+        <v>0.8904062077467443</v>
+      </c>
+      <c r="P16">
+        <v>0.8904062077467442</v>
+      </c>
+      <c r="Q16">
+        <v>408.8207574496207</v>
+      </c>
+      <c r="R16">
+        <v>3679.386817046587</v>
+      </c>
+      <c r="S16">
+        <v>0.05086208705786536</v>
+      </c>
+      <c r="T16">
+        <v>0.05086208705786535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>56.330706</v>
+      </c>
+      <c r="H17">
+        <v>168.992118</v>
+      </c>
+      <c r="I17">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J17">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009519999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.02856</v>
+      </c>
+      <c r="O17">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="P17">
+        <v>0.0009583584527718872</v>
+      </c>
+      <c r="Q17">
+        <v>0.5362683211199999</v>
+      </c>
+      <c r="R17">
+        <v>4.82641489008</v>
+      </c>
+      <c r="S17">
+        <v>6.671805562255957E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.671805562255958E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>56.330706</v>
+      </c>
+      <c r="H18">
+        <v>168.992118</v>
+      </c>
+      <c r="I18">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J18">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.23744</v>
+      </c>
+      <c r="O18">
+        <v>0.1086354338004839</v>
+      </c>
+      <c r="P18">
+        <v>0.1086354338004838</v>
+      </c>
+      <c r="Q18">
+        <v>60.78909361088</v>
+      </c>
+      <c r="R18">
+        <v>547.1018424979201</v>
+      </c>
+      <c r="S18">
+        <v>0.007562874719702357</v>
+      </c>
+      <c r="T18">
+        <v>0.007562874719702357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>56.330706</v>
+      </c>
+      <c r="H19">
+        <v>168.992118</v>
+      </c>
+      <c r="I19">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J19">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.844986</v>
+      </c>
+      <c r="N19">
+        <v>26.534958</v>
+      </c>
+      <c r="O19">
+        <v>0.8904062077467443</v>
+      </c>
+      <c r="P19">
+        <v>0.8904062077467442</v>
+      </c>
+      <c r="Q19">
+        <v>498.244305940116</v>
+      </c>
+      <c r="R19">
+        <v>4484.198753461044</v>
+      </c>
+      <c r="S19">
+        <v>0.06198742310176059</v>
+      </c>
+      <c r="T19">
+        <v>0.0619874231017606</v>
       </c>
     </row>
   </sheetData>
